--- a/public/批量修改门店简称.xlsx
+++ b/public/批量修改门店简称.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12800"/>
+    <workbookView windowWidth="30240" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>终端编码</t>
   </si>
@@ -35,7 +35,16 @@
     <t>简称</t>
   </si>
   <si>
+    <t>公司id</t>
+  </si>
+  <si>
     <t>ZD202410170000002</t>
+  </si>
+  <si>
+    <t>成都2</t>
+  </si>
+  <si>
+    <t>西安3</t>
   </si>
   <si>
     <t>ZD202410140000005</t>
@@ -1220,56 +1229,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.7596153846154" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>297663</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>298823</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>297941</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>298227</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
